--- a/Vingere code.xlsx
+++ b/Vingere code.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>T</t>
   </si>
@@ -125,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -211,6 +211,43 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -222,15 +259,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +572,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,62 +587,62 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>19</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>7</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>-25</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>-25</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>24</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>24</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>-24</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>-24</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>-23</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
-      </c>
-      <c r="F4">
-        <v>-23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,44 +658,47 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>-22</v>
+      </c>
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>-22</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="str">
+        <f>VLOOKUP(A5,$E$1:$F$52,2,)</f>
+        <v>F</v>
+      </c>
+      <c r="B6" s="11" t="str">
+        <f t="shared" ref="B6:C6" si="1">VLOOKUP(B5,$E$1:$F$52,2,)</f>
+        <v>R</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="E6">
+        <v>-21</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>-21</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>-20</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F7">
-        <v>-20</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>-19</v>
+      </c>
+      <c r="F8" t="s">
         <v>1</v>
-      </c>
-      <c r="F8">
-        <v>-19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,62 +711,62 @@
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>-18</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="F9">
-        <v>-18</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>19</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>-17</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="F10">
-        <v>-17</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>23</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>17</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>-16</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
-        <v>-16</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>-15</v>
+      </c>
+      <c r="F12" t="s">
         <v>12</v>
-      </c>
-      <c r="F12">
-        <v>-15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,43 +775,46 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:C13" si="1">B11-B10</f>
+        <f t="shared" ref="B13:C13" si="2">B11-B10</f>
         <v>10</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>-14</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="F13">
-        <v>-14</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="A14" s="10" t="str">
+        <f>VLOOKUP(A13,$E$1:$F$52,2,)</f>
+        <v>E</v>
+      </c>
+      <c r="B14" s="11" t="str">
+        <f t="shared" ref="B14" si="3">VLOOKUP(B13,$E$1:$F$52,2,)</f>
+        <v>K</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f t="shared" ref="C14" si="4">VLOOKUP(C13,$E$1:$F$52,2,)</f>
+        <v>E</v>
+      </c>
+      <c r="E14">
+        <v>-13</v>
+      </c>
+      <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="F14">
-        <v>-13</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>-12</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
-      </c>
-      <c r="F15">
-        <v>-12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,62 +827,62 @@
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>-11</v>
+      </c>
+      <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="F16">
-        <v>-11</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>19</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>7</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>-10</v>
+      </c>
+      <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="F17">
-        <v>-10</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>10</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <v>11</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>14</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>-9</v>
+      </c>
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="F18">
-        <v>-9</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>-8</v>
+      </c>
+      <c r="F19" t="s">
         <v>19</v>
-      </c>
-      <c r="F19">
-        <v>-8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,43 +891,46 @@
         <v>-9</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" ref="B20:C20" si="2">B18-B17</f>
+        <f t="shared" ref="B20:C20" si="5">B18-B17</f>
         <v>4</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>-7</v>
+      </c>
+      <c r="F20" t="s">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>-7</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="A21" s="10" t="str">
+        <f>VLOOKUP(A20,$E$1:$F$52,2,)</f>
+        <v>R</v>
+      </c>
+      <c r="B21" s="11" t="str">
+        <f t="shared" ref="B21" si="6">VLOOKUP(B20,$E$1:$F$52,2,)</f>
+        <v>E</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f t="shared" ref="C21" si="7">VLOOKUP(C20,$E$1:$F$52,2,)</f>
+        <v>K</v>
+      </c>
+      <c r="E21">
+        <v>-6</v>
+      </c>
+      <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="F21">
-        <v>-6</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>-5</v>
+      </c>
+      <c r="F22" t="s">
         <v>21</v>
-      </c>
-      <c r="F22">
-        <v>-5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,62 +943,62 @@
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>-4</v>
+      </c>
+      <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="F23">
-        <v>-4</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="5">
         <v>7</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>-3</v>
+      </c>
+      <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="F24">
-        <v>-3</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="5">
         <v>11</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>-2</v>
+      </c>
+      <c r="F25" t="s">
         <v>24</v>
       </c>
-      <c r="F25">
-        <v>-2</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26" t="s">
         <v>25</v>
-      </c>
-      <c r="F26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,226 +1007,229 @@
         <v>-16</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" ref="B27:C27" si="3">B25-B24</f>
+        <f t="shared" ref="B27:C27" si="8">B25-B24</f>
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>3</v>
       </c>
-      <c r="F27">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="str">
+        <f>VLOOKUP(A27,$E$1:$F$52,2,)</f>
+        <v>K</v>
+      </c>
+      <c r="B28" s="11" t="str">
+        <f t="shared" ref="B28" si="9">VLOOKUP(B27,$E$1:$F$52,2,)</f>
+        <v>E</v>
+      </c>
+      <c r="C28" s="12" t="str">
+        <f t="shared" ref="C28" si="10">VLOOKUP(C27,$E$1:$F$52,2,)</f>
+        <v>Y</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6" t="s">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>24</v>
       </c>
-      <c r="F51">
-        <v>24</v>
-      </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
+      <c r="E52">
         <v>25</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="s">
         <v>25</v>
       </c>
     </row>
